--- a/results/mp/logistic/corona/confidence/168/desired-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/desired-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,93 +40,84 @@
     <t>name</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>problem</t>
-  </si>
-  <si>
     <t>falling</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>recession</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>drop</t>
+    <t>no</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
@@ -136,190 +127,190 @@
     <t>oil</t>
   </si>
   <si>
-    <t>prices</t>
+    <t>of</t>
   </si>
   <si>
     <t>co</t>
   </si>
   <si>
-    <t>of</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>growth</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>won</t>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>safety</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
+    <t>give</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>helping</t>
+  </si>
+  <si>
     <t>sure</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>check</t>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>stay</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
     <t>and</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
     <t>,</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>to</t>
   </si>
 </sst>
 </file>
@@ -677,7 +668,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -685,10 +676,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -746,13 +737,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9736842105263158</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -764,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -796,13 +787,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9117647058823529</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -814,31 +805,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4">
+        <v>0.9491525423728814</v>
+      </c>
+      <c r="L4">
+        <v>56</v>
+      </c>
+      <c r="M4">
+        <v>56</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4">
-        <v>0.9696969696969697</v>
-      </c>
-      <c r="L4">
-        <v>32</v>
-      </c>
-      <c r="M4">
-        <v>32</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -846,13 +837,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.88</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -864,19 +855,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -888,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -896,13 +887,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8695652173913043</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -914,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K6">
-        <v>0.9444444444444444</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -946,13 +937,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8648648648648649</v>
+        <v>0.8321917808219178</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>243</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>243</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -964,19 +955,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K7">
-        <v>0.925</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L7">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -988,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -996,13 +987,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8611111111111112</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1014,19 +1005,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K8">
-        <v>0.9230769230769231</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1038,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1046,13 +1037,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8527397260273972</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="C9">
-        <v>249</v>
+        <v>38</v>
       </c>
       <c r="D9">
-        <v>249</v>
+        <v>38</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1064,19 +1055,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>0.9090909090909091</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1088,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1096,13 +1087,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8275862068965517</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1114,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K10">
-        <v>0.8981723237597912</v>
+        <v>0.8772845953002611</v>
       </c>
       <c r="L10">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="M10">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1138,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1146,13 +1137,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1164,31 +1155,31 @@
         <v>0</v>
       </c>
       <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11">
+        <v>0.8723404255319149</v>
+      </c>
+      <c r="L11">
+        <v>41</v>
+      </c>
+      <c r="M11">
+        <v>41</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>6</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11">
-        <v>0.8873239436619719</v>
-      </c>
-      <c r="L11">
-        <v>126</v>
-      </c>
-      <c r="M11">
-        <v>126</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1196,13 +1187,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.775</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1214,19 +1205,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K12">
-        <v>0.875</v>
+        <v>0.86875</v>
       </c>
       <c r="L12">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="M12">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1238,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1246,13 +1237,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7333333333333333</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1267,16 +1258,16 @@
         <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K13">
-        <v>0.8723404255319149</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L13">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="M13">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1288,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1296,13 +1287,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7307692307692307</v>
+        <v>0.7</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1314,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K14">
-        <v>0.8611111111111112</v>
+        <v>0.8671875</v>
       </c>
       <c r="L14">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="M14">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1338,7 +1329,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1346,13 +1337,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6976744186046512</v>
+        <v>0.6957364341085271</v>
       </c>
       <c r="C15">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D15">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1364,19 +1355,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K15">
-        <v>0.8604651162790697</v>
+        <v>0.8661971830985915</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1388,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1396,13 +1387,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6875</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1414,19 +1405,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K16">
-        <v>0.859375</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L16">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="M16">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1438,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1446,13 +1437,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6774193548387096</v>
+        <v>0.6375838926174496</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1464,19 +1455,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K17">
-        <v>0.85625</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L17">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="M17">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1488,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1496,13 +1487,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.671957671957672</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="C18">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D18">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1514,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K18">
-        <v>0.8536585365853658</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L18">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="M18">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1538,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1546,13 +1537,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6610169491525424</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C19">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="D19">
-        <v>39</v>
+        <v>220</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1564,19 +1555,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K19">
-        <v>0.8490566037735849</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L19">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1588,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1596,13 +1587,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6410256410256411</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1614,19 +1605,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K20">
-        <v>0.8448275862068966</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L20">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1638,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1646,13 +1637,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6174496644295302</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C21">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1664,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K21">
         <v>0.8214285714285714</v>
@@ -1696,13 +1687,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6153846153846154</v>
+        <v>0.52</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1714,19 +1705,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K22">
-        <v>0.8214285714285714</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1746,13 +1737,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6078431372549019</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C23">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D23">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1764,19 +1755,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K23">
-        <v>0.8205128205128205</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1788,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1796,13 +1787,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5945945945945946</v>
+        <v>0.5</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1814,19 +1805,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K24">
-        <v>0.8</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L24">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M24">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1838,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1846,13 +1837,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5818181818181818</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C25">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1864,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K25">
-        <v>0.7936507936507936</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L25">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1888,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1896,13 +1887,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5805555555555556</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="C26">
-        <v>209</v>
+        <v>32</v>
       </c>
       <c r="D26">
-        <v>209</v>
+        <v>32</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1914,19 +1905,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K26">
-        <v>0.7916666666666666</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L26">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1938,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1946,13 +1937,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.509090909090909</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C27">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="D27">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1964,19 +1955,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K27">
-        <v>0.7708333333333334</v>
+        <v>0.7588235294117647</v>
       </c>
       <c r="L27">
-        <v>37</v>
+        <v>258</v>
       </c>
       <c r="M27">
-        <v>37</v>
+        <v>258</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1988,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1996,13 +1987,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5</v>
+        <v>0.3125</v>
       </c>
       <c r="C28">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D28">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2014,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K28">
-        <v>0.7617647058823529</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L28">
-        <v>259</v>
+        <v>25</v>
       </c>
       <c r="M28">
-        <v>259</v>
+        <v>25</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2038,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>81</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2046,13 +2037,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4933333333333333</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="C29">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D29">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2064,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K29">
-        <v>0.7407407407407407</v>
+        <v>0.7312925170068028</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2085,10 +2076,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2096,38 +2087,38 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4</v>
+        <v>0.2144772117962467</v>
       </c>
       <c r="C30">
+        <v>80</v>
+      </c>
+      <c r="D30">
+        <v>80</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>293</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K30">
+        <v>0.72</v>
+      </c>
+      <c r="L30">
         <v>36</v>
       </c>
-      <c r="D30">
+      <c r="M30">
         <v>36</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>54</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K30">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L30">
-        <v>210</v>
-      </c>
-      <c r="M30">
-        <v>211</v>
-      </c>
       <c r="N30">
         <v>1</v>
       </c>
@@ -2135,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>84</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2146,13 +2137,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3571428571428572</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C31">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="D31">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2164,19 +2155,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>162</v>
+        <v>266</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K31">
-        <v>0.7076923076923077</v>
+        <v>0.7154811715481172</v>
       </c>
       <c r="L31">
-        <v>46</v>
+        <v>171</v>
       </c>
       <c r="M31">
-        <v>46</v>
+        <v>171</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2188,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2196,37 +2187,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3376623376623377</v>
+        <v>0.015625</v>
       </c>
       <c r="C32">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D32">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>51</v>
+        <v>2331</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K32">
-        <v>0.7058823529411765</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L32">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2238,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2246,37 +2237,37 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2091152815013405</v>
+        <v>0.01192394456977119</v>
       </c>
       <c r="C33">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="D33">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>295</v>
+        <v>3066</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K33">
-        <v>0.7037037037037037</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2288,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2296,37 +2287,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1166666666666667</v>
+        <v>0.01078799249530957</v>
       </c>
       <c r="C34">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D34">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>265</v>
+        <v>2109</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K34">
-        <v>0.698744769874477</v>
+        <v>0.6853932584269663</v>
       </c>
       <c r="L34">
-        <v>167</v>
+        <v>61</v>
       </c>
       <c r="M34">
-        <v>167</v>
+        <v>61</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2338,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>72</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2346,37 +2337,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.01722652885443583</v>
+        <v>0.00827165868524162</v>
       </c>
       <c r="C35">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.61</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>1141</v>
+        <v>2278</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K35">
-        <v>0.6857142857142857</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L35">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2388,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2396,37 +2387,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01225411157691067</v>
+        <v>0.007591979754720654</v>
       </c>
       <c r="C36">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D36">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="E36">
-        <v>0.14</v>
+        <v>0.42</v>
       </c>
       <c r="F36">
-        <v>0.86</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>3063</v>
+        <v>5098</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K36">
-        <v>0.68</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L36">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2438,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2446,37 +2437,37 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.01093815734118637</v>
+        <v>0.005832944470368642</v>
       </c>
       <c r="C37">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D37">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="E37">
-        <v>0.07000000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="F37">
-        <v>0.9299999999999999</v>
+        <v>0.37</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>2351</v>
+        <v>4261</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K37">
-        <v>0.6785714285714286</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2488,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2496,213 +2487,141 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.009859154929577466</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="C38">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D38">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="E38">
-        <v>0.38</v>
+        <v>0.54</v>
       </c>
       <c r="F38">
-        <v>0.62</v>
+        <v>0.46</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>2109</v>
+        <v>4940</v>
       </c>
       <c r="J38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K38">
+        <v>0.65</v>
+      </c>
+      <c r="L38">
+        <v>26</v>
+      </c>
+      <c r="M38">
+        <v>26</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="J39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K39">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="L39">
+        <v>33</v>
+      </c>
+      <c r="M39">
+        <v>33</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="J40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K40">
+        <v>0.6461538461538462</v>
+      </c>
+      <c r="L40">
+        <v>42</v>
+      </c>
+      <c r="M40">
+        <v>42</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="J41" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K38">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L38">
-        <v>22</v>
-      </c>
-      <c r="M38">
-        <v>22</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0.008250108554059922</v>
-      </c>
-      <c r="C39">
-        <v>19</v>
-      </c>
-      <c r="D39">
+      <c r="K41">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L41">
+        <v>45</v>
+      </c>
+      <c r="M41">
+        <v>45</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <v>25</v>
-      </c>
-      <c r="E39">
-        <v>0.24</v>
-      </c>
-      <c r="F39">
-        <v>0.76</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>2284</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K39">
-        <v>0.6629213483146067</v>
-      </c>
-      <c r="L39">
-        <v>59</v>
-      </c>
-      <c r="M39">
-        <v>59</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40">
-        <v>0.007052186177715092</v>
-      </c>
-      <c r="C40">
-        <v>35</v>
-      </c>
-      <c r="D40">
-        <v>68</v>
-      </c>
-      <c r="E40">
-        <v>0.49</v>
-      </c>
-      <c r="F40">
-        <v>0.51</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>4928</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K40">
-        <v>0.6285714285714286</v>
-      </c>
-      <c r="L40">
-        <v>44</v>
-      </c>
-      <c r="M40">
-        <v>44</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41">
-        <v>0.004864759680871765</v>
-      </c>
-      <c r="C41">
-        <v>25</v>
-      </c>
-      <c r="D41">
-        <v>51</v>
-      </c>
-      <c r="E41">
-        <v>0.51</v>
-      </c>
-      <c r="F41">
-        <v>0.49</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>5114</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K41">
-        <v>0.6276595744680851</v>
-      </c>
-      <c r="L41">
-        <v>59</v>
-      </c>
-      <c r="M41">
-        <v>59</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K42">
-        <v>0.6</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="L42">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M42">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2714,21 +2633,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K43">
-        <v>0.5952380952380952</v>
+        <v>0.5409836065573771</v>
       </c>
       <c r="L43">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="M43">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2740,21 +2659,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K44">
-        <v>0.5616438356164384</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="L44">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="M44">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2766,21 +2685,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K45">
-        <v>0.5</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="L45">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M45">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2797,16 +2716,16 @@
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K46">
-        <v>0.5</v>
+        <v>0.453125</v>
       </c>
       <c r="L46">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M46">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2818,21 +2737,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K47">
-        <v>0.4406779661016949</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L47">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M47">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2844,15 +2763,15 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K48">
-        <v>0.4035087719298245</v>
+        <v>0.1854838709677419</v>
       </c>
       <c r="L48">
         <v>23</v>
@@ -2870,267 +2789,293 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>34</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K49">
-        <v>0.3442622950819672</v>
+        <v>0.06188925081433225</v>
       </c>
       <c r="L49">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M49">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49">
-        <v>40</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K50">
-        <v>0.1834862385321101</v>
+        <v>0.06108786610878661</v>
       </c>
       <c r="L50">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="M50">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50">
-        <v>89</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K51">
-        <v>0.02919099249374479</v>
+        <v>0.05484460694698354</v>
       </c>
       <c r="L51">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M51">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N51">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
-        <v>1164</v>
+        <v>517</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K52">
-        <v>0.01203912716328066</v>
+        <v>0.02437106918238994</v>
       </c>
       <c r="L52">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M52">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N52">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="O52">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>2626</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K53">
-        <v>0.01003344481605351</v>
+        <v>0.01126972201352367</v>
       </c>
       <c r="L53">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M53">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="N53">
-        <v>0.92</v>
+        <v>0.73</v>
       </c>
       <c r="O53">
-        <v>0.07999999999999996</v>
+        <v>0.27</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>2368</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K54">
-        <v>0.009027492819039803</v>
+        <v>0.01067839195979899</v>
       </c>
       <c r="L54">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M54">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="N54">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="O54">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>2415</v>
+        <v>3150</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K55">
-        <v>0.00877742946708464</v>
+        <v>0.01002925198495612</v>
       </c>
       <c r="L55">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M55">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N55">
-        <v>0.72</v>
+        <v>0.96</v>
       </c>
       <c r="O55">
-        <v>0.28</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>3162</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K56">
-        <v>0.006651884700665188</v>
+        <v>0.009760632117127585</v>
       </c>
       <c r="L56">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M56">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N56">
-        <v>0.49</v>
+        <v>0.63</v>
       </c>
       <c r="O56">
-        <v>0.51</v>
+        <v>0.37</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>4928</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K57">
-        <v>0.006490496059341678</v>
+        <v>0.009449465899753493</v>
       </c>
       <c r="L57">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M57">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N57">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="O57">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>4286</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K58">
-        <v>0.005058365758754864</v>
+        <v>0.006036217303822937</v>
       </c>
       <c r="L58">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M58">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="N58">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="O58">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>5114</v>
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K59">
+        <v>0.005462348809988295</v>
+      </c>
+      <c r="L59">
+        <v>28</v>
+      </c>
+      <c r="M59">
+        <v>67</v>
+      </c>
+      <c r="N59">
+        <v>0.42</v>
+      </c>
+      <c r="O59">
+        <v>0.5800000000000001</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>5098</v>
       </c>
     </row>
   </sheetData>
